--- a/project/meal_near.xlsx
+++ b/project/meal_near.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20E092-E24A-4C79-9D50-E3526851E0A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3D958-DC4A-4C0B-8747-0447A007272D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="7845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14170" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14170" uniqueCount="1392">
   <si>
     <t>가게이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5403,6 +5403,25 @@
   </si>
   <si>
     <t>원마인드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(054)-822-6220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(054)-821-9779</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9919-0327</t>
+  </si>
+  <si>
+    <t>(054)-822-0055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(054)-821-6262</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -30807,8 +30826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A754" sqref="A754:A780"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30865,7 +30884,7 @@
         <v>6000</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>1391</v>
       </c>
       <c r="G2" t="s">
         <v>179</v>
@@ -30891,7 +30910,7 @@
         <v>5500</v>
       </c>
       <c r="F3" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G3" t="s">
         <v>1359</v>
@@ -30917,7 +30936,7 @@
         <v>5000</v>
       </c>
       <c r="F4" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G4" t="s">
         <v>1359</v>
@@ -30943,7 +30962,7 @@
         <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G5" t="s">
         <v>1359</v>
@@ -30969,7 +30988,7 @@
         <v>15000</v>
       </c>
       <c r="F6" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G6" t="s">
         <v>1359</v>
@@ -30995,7 +31014,7 @@
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G7" t="s">
         <v>1359</v>
@@ -31021,7 +31040,7 @@
         <v>20000</v>
       </c>
       <c r="F8" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G8" t="s">
         <v>1359</v>
@@ -31047,7 +31066,7 @@
         <v>25000</v>
       </c>
       <c r="F9" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G9" t="s">
         <v>1359</v>
@@ -31073,7 +31092,7 @@
         <v>25000</v>
       </c>
       <c r="F10" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G10" t="s">
         <v>1359</v>
@@ -31099,7 +31118,7 @@
         <v>30000</v>
       </c>
       <c r="F11" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G11" t="s">
         <v>1359</v>
@@ -31125,7 +31144,7 @@
         <v>1000</v>
       </c>
       <c r="F12" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G12" t="s">
         <v>1359</v>
@@ -31151,7 +31170,7 @@
         <v>1000</v>
       </c>
       <c r="F13" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G13" t="s">
         <v>1359</v>
@@ -31177,7 +31196,7 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="G14" t="s">
         <v>1359</v>
@@ -36143,7 +36162,7 @@
         <v>22000</v>
       </c>
       <c r="F205" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G205" t="s">
         <v>180</v>
@@ -36169,7 +36188,7 @@
         <v>17000</v>
       </c>
       <c r="F206" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G206" t="s">
         <v>180</v>
@@ -36195,7 +36214,7 @@
         <v>15000</v>
       </c>
       <c r="F207" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G207" t="s">
         <v>180</v>
@@ -36221,7 +36240,7 @@
         <v>16000</v>
       </c>
       <c r="F208" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G208" t="s">
         <v>180</v>
@@ -36247,7 +36266,7 @@
         <v>17000</v>
       </c>
       <c r="F209" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G209" t="s">
         <v>180</v>
@@ -36273,7 +36292,7 @@
         <v>16000</v>
       </c>
       <c r="F210" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G210" t="s">
         <v>180</v>
@@ -36299,7 +36318,7 @@
         <v>16000</v>
       </c>
       <c r="F211" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G211" t="s">
         <v>180</v>
@@ -36325,7 +36344,7 @@
         <v>17000</v>
       </c>
       <c r="F212" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G212" t="s">
         <v>180</v>
@@ -36351,7 +36370,7 @@
         <v>16000</v>
       </c>
       <c r="F213" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G213" t="s">
         <v>180</v>
@@ -36377,7 +36396,7 @@
         <v>17000</v>
       </c>
       <c r="F214" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G214" t="s">
         <v>180</v>
@@ -36403,7 +36422,7 @@
         <v>15000</v>
       </c>
       <c r="F215" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G215" t="s">
         <v>180</v>
@@ -36429,7 +36448,7 @@
         <v>16000</v>
       </c>
       <c r="F216" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G216" t="s">
         <v>180</v>
@@ -36455,7 +36474,7 @@
         <v>16000</v>
       </c>
       <c r="F217" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G217" t="s">
         <v>180</v>
@@ -36481,7 +36500,7 @@
         <v>16000</v>
       </c>
       <c r="F218" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G218" t="s">
         <v>180</v>
@@ -36507,7 +36526,7 @@
         <v>17000</v>
       </c>
       <c r="F219" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G219" t="s">
         <v>180</v>
@@ -36533,7 +36552,7 @@
         <v>16000</v>
       </c>
       <c r="F220" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G220" t="s">
         <v>180</v>
@@ -36559,7 +36578,7 @@
         <v>18000</v>
       </c>
       <c r="F221" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G221" t="s">
         <v>180</v>
@@ -36585,7 +36604,7 @@
         <v>17000</v>
       </c>
       <c r="F222" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G222" t="s">
         <v>180</v>
@@ -36611,7 +36630,7 @@
         <v>17000</v>
       </c>
       <c r="F223" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G223" t="s">
         <v>180</v>
@@ -36637,7 +36656,7 @@
         <v>17000</v>
       </c>
       <c r="F224" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G224" t="s">
         <v>180</v>
@@ -36663,7 +36682,7 @@
         <v>18000</v>
       </c>
       <c r="F225" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G225" t="s">
         <v>180</v>
@@ -36689,7 +36708,7 @@
         <v>15000</v>
       </c>
       <c r="F226" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G226" t="s">
         <v>180</v>
@@ -36715,7 +36734,7 @@
         <v>12000</v>
       </c>
       <c r="F227" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G227" t="s">
         <v>180</v>
@@ -36741,7 +36760,7 @@
         <v>10000</v>
       </c>
       <c r="F228" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G228" t="s">
         <v>180</v>
@@ -36767,7 +36786,7 @@
         <v>1500</v>
       </c>
       <c r="F229" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G229" t="s">
         <v>180</v>
@@ -36793,7 +36812,7 @@
         <v>1000</v>
       </c>
       <c r="F230" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G230" t="s">
         <v>180</v>
@@ -36819,7 +36838,7 @@
         <v>3500</v>
       </c>
       <c r="F231" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G231" t="s">
         <v>180</v>
@@ -36845,7 +36864,7 @@
         <v>4000</v>
       </c>
       <c r="F232" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G232" t="s">
         <v>180</v>
@@ -36871,7 +36890,7 @@
         <v>3000</v>
       </c>
       <c r="F233" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G233" t="s">
         <v>180</v>
@@ -36897,7 +36916,7 @@
         <v>9000</v>
       </c>
       <c r="F234" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G234" t="s">
         <v>180</v>
@@ -36923,7 +36942,7 @@
         <v>13000</v>
       </c>
       <c r="F235" t="s">
-        <v>267</v>
+        <v>1390</v>
       </c>
       <c r="G235" t="s">
         <v>180</v>
@@ -38821,7 +38840,7 @@
         <v>3500</v>
       </c>
       <c r="F308" t="s">
-        <v>267</v>
+        <v>1389</v>
       </c>
       <c r="G308" t="s">
         <v>179</v>
@@ -38847,7 +38866,7 @@
         <v>3500</v>
       </c>
       <c r="F309" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G309" t="s">
         <v>1359</v>
@@ -38873,7 +38892,7 @@
         <v>2500</v>
       </c>
       <c r="F310" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G310" t="s">
         <v>1359</v>
@@ -38899,7 +38918,7 @@
         <v>4000</v>
       </c>
       <c r="F311" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G311" t="s">
         <v>1359</v>
@@ -38925,7 +38944,7 @@
         <v>4000</v>
       </c>
       <c r="F312" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G312" t="s">
         <v>1359</v>
@@ -38951,7 +38970,7 @@
         <v>4000</v>
       </c>
       <c r="F313" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G313" t="s">
         <v>1359</v>
@@ -38977,7 +38996,7 @@
         <v>4000</v>
       </c>
       <c r="F314" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G314" t="s">
         <v>1359</v>
@@ -39003,7 +39022,7 @@
         <v>5500</v>
       </c>
       <c r="F315" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G315" t="s">
         <v>1359</v>
@@ -39029,7 +39048,7 @@
         <v>5500</v>
       </c>
       <c r="F316" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G316" t="s">
         <v>1359</v>
@@ -39055,7 +39074,7 @@
         <v>6000</v>
       </c>
       <c r="F317" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G317" t="s">
         <v>1359</v>
@@ -39081,7 +39100,7 @@
         <v>3500</v>
       </c>
       <c r="F318" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G318" t="s">
         <v>1359</v>
@@ -39107,7 +39126,7 @@
         <v>3500</v>
       </c>
       <c r="F319" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G319" t="s">
         <v>1359</v>
@@ -39133,7 +39152,7 @@
         <v>2000</v>
       </c>
       <c r="F320" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G320" t="s">
         <v>1359</v>
@@ -39159,7 +39178,7 @@
         <v>3000</v>
       </c>
       <c r="F321" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G321" t="s">
         <v>1359</v>
@@ -39185,7 +39204,7 @@
         <v>4000</v>
       </c>
       <c r="F322" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G322" t="s">
         <v>1359</v>
@@ -39211,7 +39230,7 @@
         <v>3500</v>
       </c>
       <c r="F323" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G323" t="s">
         <v>1359</v>
@@ -39237,7 +39256,7 @@
         <v>3000</v>
       </c>
       <c r="F324" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G324" t="s">
         <v>1359</v>
@@ -39263,7 +39282,7 @@
         <v>2500</v>
       </c>
       <c r="F325" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G325" t="s">
         <v>1359</v>
@@ -39289,7 +39308,7 @@
         <v>3000</v>
       </c>
       <c r="F326" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G326" t="s">
         <v>1359</v>
@@ -39315,7 +39334,7 @@
         <v>3000</v>
       </c>
       <c r="F327" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G327" t="s">
         <v>1359</v>
@@ -39341,7 +39360,7 @@
         <v>2000</v>
       </c>
       <c r="F328" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G328" t="s">
         <v>1359</v>
@@ -39367,7 +39386,7 @@
         <v>1000</v>
       </c>
       <c r="F329" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G329" t="s">
         <v>1359</v>
@@ -50417,7 +50436,7 @@
         <v>5000</v>
       </c>
       <c r="F754" t="s">
-        <v>267</v>
+        <v>1388</v>
       </c>
       <c r="G754" t="s">
         <v>179</v>
@@ -50443,7 +50462,7 @@
         <v>6000</v>
       </c>
       <c r="F755" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G755" t="s">
         <v>1359</v>
@@ -50469,7 +50488,7 @@
         <v>7000</v>
       </c>
       <c r="F756" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G756" t="s">
         <v>1359</v>
@@ -50495,7 +50514,7 @@
         <v>7000</v>
       </c>
       <c r="F757" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G757" t="s">
         <v>1359</v>
@@ -50521,7 +50540,7 @@
         <v>7000</v>
       </c>
       <c r="F758" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G758" t="s">
         <v>1359</v>
@@ -50547,7 +50566,7 @@
         <v>7000</v>
       </c>
       <c r="F759" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G759" t="s">
         <v>1359</v>
@@ -50573,7 +50592,7 @@
         <v>7000</v>
       </c>
       <c r="F760" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G760" t="s">
         <v>1359</v>
@@ -50599,7 +50618,7 @@
         <v>7000</v>
       </c>
       <c r="F761" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G761" t="s">
         <v>1359</v>
@@ -50625,7 +50644,7 @@
         <v>7500</v>
       </c>
       <c r="F762" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G762" t="s">
         <v>1359</v>
@@ -50651,7 +50670,7 @@
         <v>12000</v>
       </c>
       <c r="F763" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G763" t="s">
         <v>1359</v>
@@ -50677,7 +50696,7 @@
         <v>7500</v>
       </c>
       <c r="F764" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G764" t="s">
         <v>1359</v>
@@ -50703,7 +50722,7 @@
         <v>12000</v>
       </c>
       <c r="F765" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G765" t="s">
         <v>1359</v>
@@ -50729,7 +50748,7 @@
         <v>7500</v>
       </c>
       <c r="F766" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G766" t="s">
         <v>1359</v>
@@ -50755,7 +50774,7 @@
         <v>12000</v>
       </c>
       <c r="F767" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G767" t="s">
         <v>1359</v>
@@ -50781,7 +50800,7 @@
         <v>4500</v>
       </c>
       <c r="F768" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G768" t="s">
         <v>1359</v>
@@ -50807,7 +50826,7 @@
         <v>5000</v>
       </c>
       <c r="F769" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G769" t="s">
         <v>1359</v>
@@ -50833,7 +50852,7 @@
         <v>6500</v>
       </c>
       <c r="F770" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G770" t="s">
         <v>1359</v>
@@ -50859,7 +50878,7 @@
         <v>5000</v>
       </c>
       <c r="F771" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G771" t="s">
         <v>1359</v>
@@ -50885,7 +50904,7 @@
         <v>7000</v>
       </c>
       <c r="F772" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G772" t="s">
         <v>1359</v>
@@ -50911,7 +50930,7 @@
         <v>7000</v>
       </c>
       <c r="F773" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G773" t="s">
         <v>1359</v>
@@ -50937,7 +50956,7 @@
         <v>3500</v>
       </c>
       <c r="F774" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G774" t="s">
         <v>1359</v>
@@ -50963,7 +50982,7 @@
         <v>3500</v>
       </c>
       <c r="F775" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G775" t="s">
         <v>1359</v>
@@ -50989,7 +51008,7 @@
         <v>1000</v>
       </c>
       <c r="F776" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G776" t="s">
         <v>1359</v>
@@ -51015,7 +51034,7 @@
         <v>1500</v>
       </c>
       <c r="F777" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G777" t="s">
         <v>1359</v>
@@ -51041,7 +51060,7 @@
         <v>2500</v>
       </c>
       <c r="F778" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G778" t="s">
         <v>1359</v>
@@ -51067,7 +51086,7 @@
         <v>629</v>
       </c>
       <c r="F779" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G779" t="s">
         <v>1359</v>
@@ -51093,7 +51112,7 @@
         <v>629</v>
       </c>
       <c r="F780" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="G780" t="s">
         <v>1359</v>
@@ -55357,7 +55376,7 @@
         <v>1700</v>
       </c>
       <c r="F944" t="s">
-        <v>267</v>
+        <v>1387</v>
       </c>
       <c r="G944" t="s">
         <v>180</v>
@@ -55383,7 +55402,7 @@
         <v>1900</v>
       </c>
       <c r="F945" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G945" t="s">
         <v>1360</v>
@@ -55409,7 +55428,7 @@
         <v>2000</v>
       </c>
       <c r="F946" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G946" t="s">
         <v>1360</v>
@@ -55435,7 +55454,7 @@
         <v>2000</v>
       </c>
       <c r="F947" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G947" t="s">
         <v>1360</v>
@@ -55461,7 +55480,7 @@
         <v>2200</v>
       </c>
       <c r="F948" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G948" t="s">
         <v>1360</v>
@@ -55487,7 +55506,7 @@
         <v>2400</v>
       </c>
       <c r="F949" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G949" t="s">
         <v>1360</v>
@@ -55513,7 +55532,7 @@
         <v>2400</v>
       </c>
       <c r="F950" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G950" t="s">
         <v>1360</v>
@@ -55539,7 +55558,7 @@
         <v>2600</v>
       </c>
       <c r="F951" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G951" t="s">
         <v>1360</v>
@@ -55565,7 +55584,7 @@
         <v>2600</v>
       </c>
       <c r="F952" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G952" t="s">
         <v>1360</v>
@@ -55591,7 +55610,7 @@
         <v>2700</v>
       </c>
       <c r="F953" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G953" t="s">
         <v>1360</v>
@@ -55617,7 +55636,7 @@
         <v>2900</v>
       </c>
       <c r="F954" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G954" t="s">
         <v>1360</v>
@@ -55643,7 +55662,7 @@
         <v>2300</v>
       </c>
       <c r="F955" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G955" t="s">
         <v>1360</v>
@@ -55669,7 +55688,7 @@
         <v>2500</v>
       </c>
       <c r="F956" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G956" t="s">
         <v>1360</v>
@@ -55695,7 +55714,7 @@
         <v>2800</v>
       </c>
       <c r="F957" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G957" t="s">
         <v>1360</v>
@@ -55721,7 +55740,7 @@
         <v>2600</v>
       </c>
       <c r="F958" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G958" t="s">
         <v>1360</v>
@@ -55747,7 +55766,7 @@
         <v>2800</v>
       </c>
       <c r="F959" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G959" t="s">
         <v>1360</v>
@@ -55773,7 +55792,7 @@
         <v>3000</v>
       </c>
       <c r="F960" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G960" t="s">
         <v>1360</v>
@@ -55799,7 +55818,7 @@
         <v>2800</v>
       </c>
       <c r="F961" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G961" t="s">
         <v>1360</v>
@@ -55825,7 +55844,7 @@
         <v>3000</v>
       </c>
       <c r="F962" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G962" t="s">
         <v>1360</v>
@@ -55851,7 +55870,7 @@
         <v>3400</v>
       </c>
       <c r="F963" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G963" t="s">
         <v>1360</v>
@@ -55877,7 +55896,7 @@
         <v>2800</v>
       </c>
       <c r="F964" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G964" t="s">
         <v>1360</v>
@@ -55903,7 +55922,7 @@
         <v>2800</v>
       </c>
       <c r="F965" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G965" t="s">
         <v>1360</v>
@@ -55929,7 +55948,7 @@
         <v>3000</v>
       </c>
       <c r="F966" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G966" t="s">
         <v>1360</v>
@@ -55955,7 +55974,7 @@
         <v>3500</v>
       </c>
       <c r="F967" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G967" t="s">
         <v>1360</v>
@@ -55981,7 +56000,7 @@
         <v>1500</v>
       </c>
       <c r="F968" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G968" t="s">
         <v>1360</v>
@@ -56007,7 +56026,7 @@
         <v>1500</v>
       </c>
       <c r="F969" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G969" t="s">
         <v>1360</v>
@@ -56033,7 +56052,7 @@
         <v>1500</v>
       </c>
       <c r="F970" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G970" t="s">
         <v>1360</v>
@@ -56059,7 +56078,7 @@
         <v>2500</v>
       </c>
       <c r="F971" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G971" t="s">
         <v>1360</v>
@@ -56085,7 +56104,7 @@
         <v>2000</v>
       </c>
       <c r="F972" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G972" t="s">
         <v>1360</v>
@@ -56111,7 +56130,7 @@
         <v>2000</v>
       </c>
       <c r="F973" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="G973" t="s">
         <v>1360</v>
